--- a/storage/app/exel_templates/every_day_report.xlsx
+++ b/storage/app/exel_templates/every_day_report.xlsx
@@ -1,87 +1,163 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>%day% %month% %year%</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Оператор</t>
+  </si>
+  <si>
+    <t>Магазин</t>
+  </si>
   <si>
     <t>Заказ</t>
   </si>
   <si>
-    <t>Товары</t>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>ФИО клиента</t>
+  </si>
+  <si>
+    <t>Время доставки</t>
+  </si>
+  <si>
+    <t>Адрес</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Модель</t>
+  </si>
+  <si>
+    <t>IMEI</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Закупка</t>
+  </si>
+  <si>
+    <t>Продажа</t>
+  </si>
+  <si>
+    <t>ЗП курьера</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
+  </si>
+  <si>
+    <t>Имя курьера</t>
+  </si>
+  <si>
+    <t>Поставщик</t>
+  </si>
+  <si>
+    <t>%product.date%</t>
+  </si>
+  <si>
+    <t>%product.index%</t>
+  </si>
+  <si>
+    <t>%product.operator%</t>
+  </si>
+  <si>
+    <t>%product.store%</t>
+  </si>
+  <si>
+    <t>%product.order%</t>
+  </si>
+  <si>
+    <t>%product.type%</t>
+  </si>
+  <si>
+    <t>%product.client_name%</t>
+  </si>
+  <si>
+    <t>%product.delivery_time%</t>
+  </si>
+  <si>
+    <t>%product.address%</t>
+  </si>
+  <si>
+    <t>%product.client_phone%</t>
   </si>
   <si>
     <t>%product.name%</t>
   </si>
   <si>
-    <t>%product.order%</t>
+    <t>%product.imei%</t>
+  </si>
+  <si>
+    <t>%product.quantity%</t>
+  </si>
+  <si>
+    <t>%product.price_opt%</t>
   </si>
   <si>
     <t>%product.price%</t>
   </si>
   <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>Тип</t>
-  </si>
-  <si>
-    <t>%product.type%</t>
-  </si>
-  <si>
-    <t>Магазин</t>
-  </si>
-  <si>
-    <t>%product.store%</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>%product.index%</t>
-  </si>
-  <si>
-    <t>Кол-во</t>
-  </si>
-  <si>
-    <t>%product.quantity%</t>
-  </si>
-  <si>
-    <t>Дата</t>
+    <t>%product.courier_payment%</t>
+  </si>
+  <si>
+    <t>%product.profit%</t>
+  </si>
+  <si>
+    <t>%product.courier_name%</t>
+  </si>
+  <si>
+    <t>%product.supplier%</t>
   </si>
   <si>
     <t>%product.test%</t>
-  </si>
-  <si>
-    <t>%day% %month% %year%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -93,7 +169,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -101,24 +177,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -135,44 +307,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -202,12 +374,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -246,225 +418,347 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX4"/>
+  <dimension ref="B5:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
-    <col min="50" max="50" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" customWidth="1"/>
+    <col min="12" max="12" width="37.140625" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="5" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="O6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="Q6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="AX4" t="s">
-        <v>15</v>
+    <row r="7" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/storage/app/exel_templates/every_day_report.xlsx
+++ b/storage/app/exel_templates/every_day_report.xlsx
@@ -24,12 +24,6 @@
     <t>%day% %month% %year%</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
     <t>Оператор</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>%product.date%</t>
   </si>
   <si>
-    <t>%product.index%</t>
-  </si>
-  <si>
     <t>%product.operator%</t>
   </si>
   <si>
@@ -139,6 +130,15 @@
   </si>
   <si>
     <t>%product.test%</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>%product.status%</t>
   </si>
 </sst>
 </file>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -282,6 +282,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -585,23 +586,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1"/>
     <col min="7" max="8" width="27.42578125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
     <col min="11" max="11" width="27.85546875" customWidth="1"/>
     <col min="12" max="12" width="37.140625" customWidth="1"/>
-    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -615,123 +623,123 @@
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="T6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="M7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="N7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="S7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="T7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="W7" t="s">
         <v>37</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="W7" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/exel_templates/every_day_report.xlsx
+++ b/storage/app/exel_templates/every_day_report.xlsx
@@ -584,35 +584,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:W7"/>
+  <dimension ref="B2:W68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A26" zoomScale="70" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="1.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" customWidth="1"/>
-    <col min="7" max="8" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="27.85546875" customWidth="1"/>
-    <col min="12" max="12" width="37.140625" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
     <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:23" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
@@ -742,8 +747,13 @@
         <v>37</v>
       </c>
     </row>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="54.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="102" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.15748031496062992" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
